--- a/test-output/TestResult.xlsx
+++ b/test-output/TestResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8339" uniqueCount="283">
   <si>
     <t>ReferenceID</t>
   </si>
@@ -765,6 +765,114 @@
   </si>
   <si>
     <t>05/16/2023 13:12:53</t>
+  </si>
+  <si>
+    <t>08/31/2023 08:32:43</t>
+  </si>
+  <si>
+    <t>08/31/2023 08:49:55</t>
+  </si>
+  <si>
+    <t>08/31/2023 10:02:43</t>
+  </si>
+  <si>
+    <t>08/31/2023 13:04:36</t>
+  </si>
+  <si>
+    <t>08/31/2023 13:13:24</t>
+  </si>
+  <si>
+    <t>08/31/2023 13:16:53</t>
+  </si>
+  <si>
+    <t>08/31/2023 13:30:51</t>
+  </si>
+  <si>
+    <t>08/31/2023 14:01:22</t>
+  </si>
+  <si>
+    <t>09/05/2023 14:11:08</t>
+  </si>
+  <si>
+    <t>09/05/2023 14:19:50</t>
+  </si>
+  <si>
+    <t>09/05/2023 14:25:59</t>
+  </si>
+  <si>
+    <t>09/05/2023 14:35:02</t>
+  </si>
+  <si>
+    <t>09/05/2023 14:40:34</t>
+  </si>
+  <si>
+    <t>09/05/2023 15:03:53</t>
+  </si>
+  <si>
+    <t>09/05/2023 15:27:27</t>
+  </si>
+  <si>
+    <t>09/05/2023 15:36:10</t>
+  </si>
+  <si>
+    <t>09/05/2023 15:53:28</t>
+  </si>
+  <si>
+    <t>09/05/2023 15:58:51</t>
+  </si>
+  <si>
+    <t>09/05/2023 16:04:33</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:21:51</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:30:40</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:37:31</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:46:21</t>
+  </si>
+  <si>
+    <t>09/06/2023 09:56:38</t>
+  </si>
+  <si>
+    <t>09/07/2023 07:10:42</t>
+  </si>
+  <si>
+    <t>09/07/2023 07:18:02</t>
+  </si>
+  <si>
+    <t>09/07/2023 08:50:04</t>
+  </si>
+  <si>
+    <t>09/08/2023 09:39:22</t>
+  </si>
+  <si>
+    <t>09/08/2023 09:47:56</t>
+  </si>
+  <si>
+    <t>09/08/2023 10:01:57</t>
+  </si>
+  <si>
+    <t>09/11/2023 12:31:20</t>
+  </si>
+  <si>
+    <t>09/11/2023 14:38:38</t>
+  </si>
+  <si>
+    <t>09/11/2023 14:55:42</t>
+  </si>
+  <si>
+    <t>09/11/2023 15:01:44</t>
+  </si>
+  <si>
+    <t>09/11/2023 15:14:36</t>
+  </si>
+  <si>
+    <t>09/11/2023 15:41:22</t>
   </si>
 </sst>
 </file>
@@ -2458,7 +2566,7 @@
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -2472,7 +2580,7 @@
       </c>
       <c r="D86"/>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
@@ -2486,7 +2594,7 @@
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
@@ -2500,7 +2608,7 @@
       </c>
       <c r="D88"/>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
@@ -2514,7 +2622,7 @@
       </c>
       <c r="D89"/>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
@@ -2528,7 +2636,7 @@
       </c>
       <c r="D90"/>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
@@ -2542,7 +2650,7 @@
       </c>
       <c r="D91"/>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -2556,7 +2664,7 @@
       </c>
       <c r="D92"/>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
@@ -2570,7 +2678,7 @@
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
@@ -2584,7 +2692,7 @@
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
@@ -2598,7 +2706,7 @@
       </c>
       <c r="D95"/>
       <c r="E95" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
@@ -2612,7 +2720,7 @@
       </c>
       <c r="D96"/>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
@@ -2626,7 +2734,7 @@
       </c>
       <c r="D97"/>
       <c r="E97" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
@@ -2640,7 +2748,7 @@
       </c>
       <c r="D98"/>
       <c r="E98" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
@@ -2654,7 +2762,7 @@
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
@@ -2668,7 +2776,7 @@
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
@@ -2682,7 +2790,7 @@
       </c>
       <c r="D101"/>
       <c r="E101" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F101"/>
       <c r="G101"/>
@@ -2696,7 +2804,7 @@
       </c>
       <c r="D102"/>
       <c r="E102" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
@@ -2710,7 +2818,7 @@
       </c>
       <c r="D103"/>
       <c r="E103" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F103"/>
       <c r="G103"/>
@@ -2724,7 +2832,7 @@
       </c>
       <c r="D104"/>
       <c r="E104" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
@@ -2738,7 +2846,7 @@
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
@@ -2752,7 +2860,7 @@
       </c>
       <c r="D106"/>
       <c r="E106" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
@@ -2766,7 +2874,7 @@
       </c>
       <c r="D107"/>
       <c r="E107" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
@@ -2780,7 +2888,7 @@
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
@@ -2794,7 +2902,7 @@
       </c>
       <c r="D109"/>
       <c r="E109" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
@@ -2808,7 +2916,7 @@
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
@@ -2822,7 +2930,7 @@
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F111"/>
       <c r="G111"/>
@@ -2836,7 +2944,7 @@
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F112"/>
       <c r="G112"/>
@@ -2850,7 +2958,7 @@
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
@@ -2864,7 +2972,7 @@
       </c>
       <c r="D114"/>
       <c r="E114" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F114"/>
       <c r="G114"/>
@@ -2878,7 +2986,7 @@
       </c>
       <c r="D115"/>
       <c r="E115" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F115"/>
       <c r="G115"/>
@@ -2892,7 +3000,7 @@
       </c>
       <c r="D116"/>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F116"/>
       <c r="G116"/>
@@ -2906,7 +3014,7 @@
       </c>
       <c r="D117"/>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -2920,7 +3028,7 @@
       </c>
       <c r="D118"/>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F118"/>
       <c r="G118"/>
@@ -2934,7 +3042,7 @@
       </c>
       <c r="D119"/>
       <c r="E119" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F119"/>
       <c r="G119"/>
@@ -2948,7 +3056,7 @@
       </c>
       <c r="D120"/>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F120"/>
       <c r="G120"/>
@@ -2962,7 +3070,7 @@
       </c>
       <c r="D121"/>
       <c r="E121" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F121"/>
       <c r="G121"/>
@@ -2976,7 +3084,7 @@
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F122"/>
       <c r="G122"/>
@@ -2990,7 +3098,7 @@
       </c>
       <c r="D123"/>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F123"/>
       <c r="G123"/>
@@ -3004,7 +3112,7 @@
       </c>
       <c r="D124"/>
       <c r="E124" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F124"/>
       <c r="G124"/>
@@ -3018,7 +3126,7 @@
       </c>
       <c r="D125"/>
       <c r="E125" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F125"/>
       <c r="G125"/>
@@ -3032,7 +3140,7 @@
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F126"/>
       <c r="G126"/>
@@ -3046,7 +3154,7 @@
       </c>
       <c r="D127"/>
       <c r="E127" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F127"/>
       <c r="G127"/>
@@ -3060,7 +3168,7 @@
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F128"/>
       <c r="G128"/>
@@ -3074,7 +3182,7 @@
       </c>
       <c r="D129"/>
       <c r="E129" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F129"/>
       <c r="G129"/>
@@ -3088,7 +3196,7 @@
       </c>
       <c r="D130"/>
       <c r="E130" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F130"/>
       <c r="G130"/>
@@ -3102,7 +3210,7 @@
       </c>
       <c r="D131"/>
       <c r="E131" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F131"/>
       <c r="G131"/>
@@ -3116,7 +3224,7 @@
       </c>
       <c r="D132"/>
       <c r="E132" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F132"/>
       <c r="G132"/>
@@ -3130,7 +3238,7 @@
       </c>
       <c r="D133"/>
       <c r="E133" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F133"/>
       <c r="G133"/>
